--- a/data_xlsx/沪深300指数.xlsx
+++ b/data_xlsx/沪深300指数.xlsx
@@ -41826,8 +41826,88 @@
         <v>3842.7547</v>
       </c>
     </row>
+    <row r="5219">
+      <c r="A5219" s="1" t="n">
+        <v>45114.0</v>
+      </c>
+      <c r="B5219" s="2" t="n">
+        <v>3825.6988</v>
+      </c>
+    </row>
     <row r="5220">
-      <c r="A5220" s="3" t="inlineStr">
+      <c r="A5220" s="1" t="n">
+        <v>45117.0</v>
+      </c>
+      <c r="B5220" s="2" t="n">
+        <v>3844.3269</v>
+      </c>
+    </row>
+    <row r="5221">
+      <c r="A5221" s="1" t="n">
+        <v>45118.0</v>
+      </c>
+      <c r="B5221" s="2" t="n">
+        <v>3869.4861</v>
+      </c>
+    </row>
+    <row r="5222">
+      <c r="A5222" s="1" t="n">
+        <v>45119.0</v>
+      </c>
+      <c r="B5222" s="2" t="n">
+        <v>3843.4369</v>
+      </c>
+    </row>
+    <row r="5223">
+      <c r="A5223" s="1" t="n">
+        <v>45120.0</v>
+      </c>
+      <c r="B5223" s="2" t="n">
+        <v>3898.4229</v>
+      </c>
+    </row>
+    <row r="5224">
+      <c r="A5224" s="1" t="n">
+        <v>45121.0</v>
+      </c>
+      <c r="B5224" s="2" t="n">
+        <v>3899.1027</v>
+      </c>
+    </row>
+    <row r="5225">
+      <c r="A5225" s="1" t="n">
+        <v>45124.0</v>
+      </c>
+      <c r="B5225" s="2" t="n">
+        <v>3867.1749</v>
+      </c>
+    </row>
+    <row r="5226">
+      <c r="A5226" s="1" t="n">
+        <v>45125.0</v>
+      </c>
+      <c r="B5226" s="2" t="n">
+        <v>3854.9393</v>
+      </c>
+    </row>
+    <row r="5227">
+      <c r="A5227" s="1" t="n">
+        <v>45126.0</v>
+      </c>
+      <c r="B5227" s="2" t="n">
+        <v>3850.8663</v>
+      </c>
+    </row>
+    <row r="5228">
+      <c r="A5228" s="1" t="n">
+        <v>45127.0</v>
+      </c>
+      <c r="B5228" s="2" t="n">
+        <v>3823.6946</v>
+      </c>
+    </row>
+    <row r="5230">
+      <c r="A5230" s="3" t="inlineStr">
         <is>
           <t>数据来源：Wind</t>
         </is>

--- a/data_xlsx/沪深300指数.xlsx
+++ b/data_xlsx/沪深300指数.xlsx
@@ -41906,8 +41906,208 @@
         <v>3823.6946</v>
       </c>
     </row>
+    <row r="5229">
+      <c r="A5229" s="1" t="n">
+        <v>45128.0</v>
+      </c>
+      <c r="B5229" s="2" t="n">
+        <v>3821.91</v>
+      </c>
+    </row>
     <row r="5230">
-      <c r="A5230" s="3" t="inlineStr">
+      <c r="A5230" s="1" t="n">
+        <v>45131.0</v>
+      </c>
+      <c r="B5230" s="2" t="n">
+        <v>3805.221</v>
+      </c>
+    </row>
+    <row r="5231">
+      <c r="A5231" s="1" t="n">
+        <v>45132.0</v>
+      </c>
+      <c r="B5231" s="2" t="n">
+        <v>3915.1153</v>
+      </c>
+    </row>
+    <row r="5232">
+      <c r="A5232" s="1" t="n">
+        <v>45133.0</v>
+      </c>
+      <c r="B5232" s="2" t="n">
+        <v>3907.0128</v>
+      </c>
+    </row>
+    <row r="5233">
+      <c r="A5233" s="1" t="n">
+        <v>45134.0</v>
+      </c>
+      <c r="B5233" s="2" t="n">
+        <v>3902.3458</v>
+      </c>
+    </row>
+    <row r="5234">
+      <c r="A5234" s="1" t="n">
+        <v>45135.0</v>
+      </c>
+      <c r="B5234" s="2" t="n">
+        <v>3992.7376</v>
+      </c>
+    </row>
+    <row r="5235">
+      <c r="A5235" s="1" t="n">
+        <v>45138.0</v>
+      </c>
+      <c r="B5235" s="2" t="n">
+        <v>4014.6301</v>
+      </c>
+    </row>
+    <row r="5236">
+      <c r="A5236" s="1" t="n">
+        <v>45139.0</v>
+      </c>
+      <c r="B5236" s="2" t="n">
+        <v>3998.001</v>
+      </c>
+    </row>
+    <row r="5237">
+      <c r="A5237" s="1" t="n">
+        <v>45140.0</v>
+      </c>
+      <c r="B5237" s="2" t="n">
+        <v>3969.895</v>
+      </c>
+    </row>
+    <row r="5238">
+      <c r="A5238" s="1" t="n">
+        <v>45141.0</v>
+      </c>
+      <c r="B5238" s="2" t="n">
+        <v>4004.9839</v>
+      </c>
+    </row>
+    <row r="5239">
+      <c r="A5239" s="1" t="n">
+        <v>45142.0</v>
+      </c>
+      <c r="B5239" s="2" t="n">
+        <v>4020.5792</v>
+      </c>
+    </row>
+    <row r="5240">
+      <c r="A5240" s="1" t="n">
+        <v>45145.0</v>
+      </c>
+      <c r="B5240" s="2" t="n">
+        <v>3990.1531</v>
+      </c>
+    </row>
+    <row r="5241">
+      <c r="A5241" s="1" t="n">
+        <v>45146.0</v>
+      </c>
+      <c r="B5241" s="2" t="n">
+        <v>3979.7322</v>
+      </c>
+    </row>
+    <row r="5242">
+      <c r="A5242" s="1" t="n">
+        <v>45147.0</v>
+      </c>
+      <c r="B5242" s="2" t="n">
+        <v>3967.5652</v>
+      </c>
+    </row>
+    <row r="5243">
+      <c r="A5243" s="1" t="n">
+        <v>45148.0</v>
+      </c>
+      <c r="B5243" s="2" t="n">
+        <v>3975.7166</v>
+      </c>
+    </row>
+    <row r="5244">
+      <c r="A5244" s="1" t="n">
+        <v>45149.0</v>
+      </c>
+      <c r="B5244" s="2" t="n">
+        <v>3884.2538</v>
+      </c>
+    </row>
+    <row r="5245">
+      <c r="A5245" s="1" t="n">
+        <v>45152.0</v>
+      </c>
+      <c r="B5245" s="2" t="n">
+        <v>3855.9061</v>
+      </c>
+    </row>
+    <row r="5246">
+      <c r="A5246" s="1" t="n">
+        <v>45153.0</v>
+      </c>
+      <c r="B5246" s="2" t="n">
+        <v>3846.5357</v>
+      </c>
+    </row>
+    <row r="5247">
+      <c r="A5247" s="1" t="n">
+        <v>45154.0</v>
+      </c>
+      <c r="B5247" s="2" t="n">
+        <v>3818.3338</v>
+      </c>
+    </row>
+    <row r="5248">
+      <c r="A5248" s="1" t="n">
+        <v>45155.0</v>
+      </c>
+      <c r="B5248" s="2" t="n">
+        <v>3831.1008</v>
+      </c>
+    </row>
+    <row r="5249">
+      <c r="A5249" s="1" t="n">
+        <v>45156.0</v>
+      </c>
+      <c r="B5249" s="2" t="n">
+        <v>3784.0038</v>
+      </c>
+    </row>
+    <row r="5250">
+      <c r="A5250" s="1" t="n">
+        <v>45159.0</v>
+      </c>
+      <c r="B5250" s="2" t="n">
+        <v>3729.555</v>
+      </c>
+    </row>
+    <row r="5251">
+      <c r="A5251" s="1" t="n">
+        <v>45160.0</v>
+      </c>
+      <c r="B5251" s="2" t="n">
+        <v>3758.2271</v>
+      </c>
+    </row>
+    <row r="5252">
+      <c r="A5252" s="1" t="n">
+        <v>45161.0</v>
+      </c>
+      <c r="B5252" s="2" t="n">
+        <v>3696.6339</v>
+      </c>
+    </row>
+    <row r="5253">
+      <c r="A5253" s="1" t="n">
+        <v>45162.0</v>
+      </c>
+      <c r="B5253" s="2" t="n">
+        <v>3723.4293</v>
+      </c>
+    </row>
+    <row r="5255">
+      <c r="A5255" s="3" t="inlineStr">
         <is>
           <t>数据来源：Wind</t>
         </is>
